--- a/mlResults/output/2021-07-16.xlsx
+++ b/mlResults/output/2021-07-16.xlsx
@@ -2814,7 +2814,7 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>I-SE</t>
+          <t>I-NE</t>
         </is>
       </c>
     </row>

--- a/mlResults/output/2021-07-16.xlsx
+++ b/mlResults/output/2021-07-16.xlsx
@@ -2814,7 +2814,7 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>I-NE</t>
+          <t>I-SE</t>
         </is>
       </c>
     </row>

--- a/mlResults/output/2021-07-16.xlsx
+++ b/mlResults/output/2021-07-16.xlsx
@@ -2334,7 +2334,7 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>N-SE</t>
+          <t>N-MF</t>
         </is>
       </c>
     </row>
